--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,158 +423,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E1" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G1" t="n">
         <v>0</v>
       </c>
       <c r="H1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="I1" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J1" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K1" t="n">
+        <v>24</v>
+      </c>
+      <c r="L1" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
